--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Test for dimensionerende kraft</t>
+  </si>
+  <si>
+    <t>GUI bug fixing</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,6 +1433,29 @@
       </c>
       <c r="I45">
         <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42818</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
